--- a/size.xlsx
+++ b/size.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>#of char</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>size 2</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>receive</t>
   </si>
 </sst>
 </file>
@@ -57,17 +63,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,18 +93,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,71 +385,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:J25"/>
+  <dimension ref="D3:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="2">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
         <v>14</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="2">
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
         <f>(128-((D5*5)+(D5-E5)))/2</f>
         <v>22.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f>(128-((D5*10)+(D5-E5)))/2</f>
         <v>-12.5</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="H10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>1</v>
       </c>
@@ -450,41 +463,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J16" s="3"/>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" s="3"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" s="3"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J19" s="3"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J20" s="3"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J21" s="3"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J22" s="3"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J23" s="3"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J24" s="3"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J25" s="3"/>
+      <c r="J25" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/size.xlsx
+++ b/size.xlsx
@@ -388,7 +388,7 @@
   <dimension ref="D3:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -440,11 +440,11 @@
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <f>(128-((D5*5)+(D5-E5)))/2</f>
-        <v>22.5</v>
+        <v>31.5</v>
       </c>
       <c r="E9" s="1">
         <f>(128-((D5*10)+(D5-E5)))/2</f>
-        <v>-12.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.25">

--- a/size.xlsx
+++ b/size.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>#of char</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>size 2</t>
-  </si>
-  <si>
-    <t>cc</t>
   </si>
   <si>
     <t>receive</t>
@@ -388,7 +385,7 @@
   <dimension ref="D3:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +404,7 @@
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -417,9 +414,7 @@
       </c>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.25">
@@ -434,17 +429,17 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <f>(128-((D5*5)+(D5-E5)))/2</f>
-        <v>31.5</v>
+        <v>28.5</v>
       </c>
       <c r="E9" s="1">
         <f>(128-((D5*10)+(D5-E5)))/2</f>
-        <v>4</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.25">

--- a/size.xlsx
+++ b/size.xlsx
@@ -385,7 +385,7 @@
   <dimension ref="D3:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +404,7 @@
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -435,11 +435,11 @@
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <f>(128-((D5*5)+(D5-E5)))/2</f>
-        <v>28.5</v>
+        <v>31.5</v>
       </c>
       <c r="E9" s="1">
         <f>(128-((D5*10)+(D5-E5)))/2</f>
-        <v>-1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.25">
